--- a/api/resources/excel/Purchase/PurchaseWorkbook.xlsx
+++ b/api/resources/excel/Purchase/PurchaseWorkbook.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="pw_summary" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="pw_purchases" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="purchase_summary_sheet" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="purchase_sheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
-    <t>purchases_summary_list</t>
+    <t>purchase_summary_list</t>
   </si>
   <si>
     <t>headers</t>
@@ -95,7 +95,7 @@
     <t>total_commission</t>
   </si>
   <si>
-    <t>purchases_table</t>
+    <t>purchase_table</t>
   </si>
   <si>
     <t>purchase_id</t>
